--- a/public/files/products.xlsx
+++ b/public/files/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="332">
   <si>
     <t xml:space="preserve">Title am</t>
   </si>
@@ -205,6 +205,9 @@
     <t xml:space="preserve">Door "flag"</t>
   </si>
   <si>
+    <t xml:space="preserve">Դռներ և պատուհաններ</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -636,9 +639,6 @@
     <t xml:space="preserve">Metal-plastic windows white</t>
   </si>
   <si>
-    <t xml:space="preserve">Դռներ և պատուհաններ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Մետաղապլաստե դուռ</t>
   </si>
   <si>
@@ -1183,7 +1183,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1245,6 +1245,12 @@
       <name val="Arial LatArm"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -1361,11 +1367,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1418,42 +1424,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1474,11 +1484,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1598,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1748,12 +1758,14 @@
       <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="15" t="n">
         <v>65000</v>
@@ -1761,31 +1773,31 @@
     </row>
     <row r="6" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="19" t="n">
         <v>600000</v>
@@ -1796,31 +1808,31 @@
     </row>
     <row r="7" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="19" t="n">
         <v>750000</v>
@@ -1831,31 +1843,31 @@
     </row>
     <row r="8" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="19" t="n">
         <v>650000</v>
@@ -1866,16 +1878,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="13" t="s">
         <v>55</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>16</v>
@@ -1886,19 +1898,19 @@
     </row>
     <row r="10" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>16</v>
@@ -1912,16 +1924,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="22" t="s">
         <v>61</v>
       </c>
+      <c r="B11" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>16</v>
@@ -1931,20 +1943,20 @@
       </c>
     </row>
     <row r="12" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>63</v>
+      <c r="A12" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>16</v>
@@ -1958,19 +1970,19 @@
     </row>
     <row r="13" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
@@ -1979,24 +1991,24 @@
         <v>65000</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
@@ -2006,20 +2018,20 @@
       </c>
     </row>
     <row r="15" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>16</v>
@@ -2033,19 +2045,19 @@
     </row>
     <row r="16" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -2056,16 +2068,16 @@
     </row>
     <row r="17" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -2074,13 +2086,13 @@
         <v>16</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" s="8" t="n">
         <v>180000</v>
@@ -2088,31 +2100,31 @@
     </row>
     <row r="18" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" s="8" t="n">
         <v>180000</v>
@@ -2120,15 +2132,15 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2143,15 +2155,15 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2161,13 +2173,13 @@
         <v>16</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J20" s="15" t="n">
         <v>2500</v>
@@ -2175,19 +2187,19 @@
     </row>
     <row r="21" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
@@ -2197,17 +2209,17 @@
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
-        <v>105</v>
+      <c r="A22" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>16</v>
@@ -2220,17 +2232,17 @@
       </c>
     </row>
     <row r="23" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>16</v>
@@ -2243,20 +2255,20 @@
       </c>
     </row>
     <row r="24" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>113</v>
       </c>
+      <c r="B24" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="C24" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>16</v>
@@ -2270,13 +2282,13 @@
     </row>
     <row r="25" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="26" t="s">
         <v>117</v>
       </c>
+      <c r="B25" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="C25" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>23</v>
@@ -2296,19 +2308,19 @@
     </row>
     <row r="26" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
@@ -2322,19 +2334,19 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>16</v>
@@ -2345,76 +2357,76 @@
     </row>
     <row r="28" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J28" s="28" t="n">
         <v>270000</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J29" s="28" t="n">
         <v>500000</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J30" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J30" s="28" t="n">
         <v>140000</v>
       </c>
       <c r="K30" s="8" t="n">
@@ -2423,24 +2435,24 @@
     </row>
     <row r="31" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J31" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J31" s="28" t="n">
         <v>150000</v>
       </c>
       <c r="K31" s="8" t="n">
@@ -2449,179 +2461,179 @@
     </row>
     <row r="32" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J32" s="28" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J33" s="28" t="n">
         <v>78000</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="28" t="n">
+        <v>130</v>
+      </c>
+      <c r="J34" s="29" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" s="28" t="n">
+        <v>130</v>
+      </c>
+      <c r="J35" s="29" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J36" s="28" t="n">
+        <v>130</v>
+      </c>
+      <c r="J36" s="29" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="28" t="n">
+        <v>130</v>
+      </c>
+      <c r="J37" s="29" t="n">
         <v>68000</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="28" t="n">
+        <v>130</v>
+      </c>
+      <c r="J38" s="29" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="39" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J39" s="30" t="n">
         <v>35000</v>
       </c>
       <c r="K39" s="21" t="n">
@@ -2639,9 +2651,9 @@
         <v>168</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J40" s="30" t="n">
+        <v>31</v>
+      </c>
+      <c r="J40" s="31" t="n">
         <v>50000</v>
       </c>
       <c r="K40" s="21" t="n">
@@ -2649,7 +2661,7 @@
       </c>
     </row>
     <row r="41" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
         <v>169</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -2659,9 +2671,9 @@
         <v>171</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J41" s="30" t="n">
+        <v>31</v>
+      </c>
+      <c r="J41" s="31" t="n">
         <v>45000</v>
       </c>
       <c r="K41" s="21" t="n">
@@ -2669,7 +2681,7 @@
       </c>
     </row>
     <row r="42" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -2679,9 +2691,9 @@
         <v>174</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J42" s="30" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" s="31" t="n">
         <v>60000</v>
       </c>
       <c r="K42" s="21" t="n">
@@ -2699,7 +2711,7 @@
         <v>177</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="J43" s="16" t="n">
         <v>80000</v>
@@ -2719,7 +2731,7 @@
         <v>180</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="J44" s="16" t="n">
         <v>90000</v>
@@ -2728,87 +2740,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" s="33" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32" t="s">
+    <row r="45" s="34" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="35" t="n">
+      <c r="F45" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="36" t="n">
         <v>55000</v>
       </c>
     </row>
-    <row r="46" s="33" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="s">
+    <row r="46" s="34" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="35" t="s">
         <v>184</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="36" t="n">
+      <c r="J46" s="37" t="n">
         <v>325000</v>
       </c>
     </row>
-    <row r="47" s="33" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32" t="s">
+    <row r="47" s="34" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="35" t="s">
         <v>184</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="J47" s="36" t="n">
+      <c r="J47" s="37" t="n">
         <v>340000</v>
       </c>
     </row>
@@ -2829,9 +2841,9 @@
         <v>24</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="37" t="n">
+        <v>32</v>
+      </c>
+      <c r="J48" s="38" t="n">
         <v>12000</v>
       </c>
     </row>
@@ -2849,12 +2861,12 @@
         <v>200</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" s="37" t="n">
+        <v>32</v>
+      </c>
+      <c r="J49" s="38" t="n">
         <v>16000</v>
       </c>
       <c r="K49" s="8" t="n">
@@ -2878,9 +2890,9 @@
         <v>24</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="36" t="n">
+        <v>32</v>
+      </c>
+      <c r="J50" s="37" t="n">
         <v>84000</v>
       </c>
     </row>
@@ -2901,9 +2913,9 @@
         <v>24</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="36" t="n">
+        <v>32</v>
+      </c>
+      <c r="J51" s="37" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -2924,9 +2936,9 @@
         <v>24</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52" s="36" t="n">
+        <v>32</v>
+      </c>
+      <c r="J52" s="37" t="n">
         <v>96000</v>
       </c>
     </row>
@@ -2947,7 +2959,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>218</v>
@@ -2958,7 +2970,7 @@
       <c r="I53" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="37" t="n">
+      <c r="J53" s="38" t="n">
         <v>76800</v>
       </c>
       <c r="K53" s="8" t="n">
@@ -2982,7 +2994,7 @@
         <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>224</v>
@@ -2993,7 +3005,7 @@
       <c r="I54" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J54" s="37" t="n">
+      <c r="J54" s="38" t="n">
         <v>90000</v>
       </c>
       <c r="K54" s="8" t="n">
@@ -3017,7 +3029,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>230</v>
@@ -3028,7 +3040,7 @@
       <c r="I55" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J55" s="37" t="n">
+      <c r="J55" s="38" t="n">
         <v>105600</v>
       </c>
       <c r="K55" s="8" t="n">
@@ -3052,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>236</v>
@@ -3063,7 +3075,7 @@
       <c r="I56" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J56" s="37" t="n">
+      <c r="J56" s="38" t="n">
         <v>504000</v>
       </c>
       <c r="K56" s="8" t="s">
@@ -3087,7 +3099,7 @@
         <v>24</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>243</v>
@@ -3098,7 +3110,7 @@
       <c r="I57" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J57" s="37" t="n">
+      <c r="J57" s="38" t="n">
         <v>312000</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -3122,7 +3134,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>250</v>
@@ -3133,7 +3145,7 @@
       <c r="I58" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="J58" s="37" t="n">
+      <c r="J58" s="38" t="n">
         <v>392000</v>
       </c>
       <c r="K58" s="8" t="s">
@@ -3157,7 +3169,7 @@
         <v>24</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>257</v>
@@ -3168,7 +3180,7 @@
       <c r="I59" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J59" s="37" t="n">
+      <c r="J59" s="38" t="n">
         <v>312000</v>
       </c>
       <c r="K59" s="8" t="n">
@@ -3192,7 +3204,7 @@
         <v>24</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>263</v>
@@ -3203,7 +3215,7 @@
       <c r="I60" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="J60" s="37" t="n">
+      <c r="J60" s="38" t="n">
         <v>312000</v>
       </c>
       <c r="K60" s="8" t="n">
@@ -3227,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>269</v>
@@ -3238,7 +3250,7 @@
       <c r="I61" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="J61" s="37" t="n">
+      <c r="J61" s="38" t="n">
         <v>348000</v>
       </c>
       <c r="K61" s="8" t="n">
@@ -3262,7 +3274,7 @@
         <v>24</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>275</v>
@@ -3273,7 +3285,7 @@
       <c r="I62" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="J62" s="37" t="n">
+      <c r="J62" s="38" t="n">
         <v>348000</v>
       </c>
       <c r="K62" s="8" t="n">
@@ -3297,7 +3309,7 @@
         <v>24</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>281</v>
@@ -3308,7 +3320,7 @@
       <c r="I63" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="J63" s="37" t="n">
+      <c r="J63" s="38" t="n">
         <v>348000</v>
       </c>
       <c r="K63" s="8" t="n">
@@ -3332,7 +3344,7 @@
         <v>24</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>287</v>
@@ -3343,7 +3355,7 @@
       <c r="I64" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="J64" s="37" t="n">
+      <c r="J64" s="38" t="n">
         <v>384000</v>
       </c>
       <c r="K64" s="8" t="n">
@@ -3367,7 +3379,7 @@
         <v>24</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>293</v>
@@ -3378,7 +3390,7 @@
       <c r="I65" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J65" s="37" t="n">
+      <c r="J65" s="38" t="n">
         <v>924000</v>
       </c>
       <c r="K65" s="8" t="n">
@@ -3402,7 +3414,7 @@
         <v>24</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>299</v>
@@ -3413,7 +3425,7 @@
       <c r="I66" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="J66" s="37" t="n">
+      <c r="J66" s="38" t="n">
         <v>1128000</v>
       </c>
       <c r="K66" s="8" t="n">
@@ -3437,7 +3449,7 @@
         <v>24</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>305</v>
@@ -3448,7 +3460,7 @@
       <c r="I67" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="J67" s="37" t="n">
+      <c r="J67" s="38" t="n">
         <v>1200000</v>
       </c>
       <c r="K67" s="8" t="n">
@@ -3472,7 +3484,7 @@
         <v>24</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>311</v>
@@ -3483,7 +3495,7 @@
       <c r="I68" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="J68" s="37" t="n">
+      <c r="J68" s="38" t="n">
         <v>1400000</v>
       </c>
       <c r="K68" s="8" t="n">
@@ -3507,7 +3519,7 @@
         <v>24</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>317</v>
@@ -3518,7 +3530,7 @@
       <c r="I69" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="J69" s="37" t="n">
+      <c r="J69" s="38" t="n">
         <v>2640000</v>
       </c>
     </row>
@@ -3539,7 +3551,7 @@
         <v>24</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>323</v>
@@ -3550,7 +3562,7 @@
       <c r="I70" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="J70" s="37" t="n">
+      <c r="J70" s="38" t="n">
         <v>2340000</v>
       </c>
     </row>
@@ -3571,7 +3583,7 @@
         <v>24</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>329</v>
@@ -3582,7 +3594,7 @@
       <c r="I71" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J71" s="36" t="n">
+      <c r="J71" s="37" t="n">
         <v>48000</v>
       </c>
     </row>
